--- a/django_60_day_challenge.xlsx
+++ b/django_60_day_challenge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\60-Days-django-challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A431B96-DB7C-47E3-A242-2DD3C54B6D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B85C507-55BB-467D-9F95-DA29DEFB5F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -789,10 +789,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>45514</v>
+        <v>45515</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
@@ -800,10 +800,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>45515</v>
+        <v>45516</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
@@ -811,10 +811,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>45516</v>
+        <v>45517</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="3">
         <v>2</v>
@@ -822,10 +822,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>45517</v>
+        <v>45518</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
@@ -833,10 +833,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>45518</v>
+        <v>45519</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
@@ -844,10 +844,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>45519</v>
+        <v>45520</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
@@ -855,10 +855,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
@@ -866,10 +866,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>45521</v>
+        <v>45522</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" s="3">
         <v>2</v>
@@ -877,10 +877,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>45522</v>
+        <v>45514</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
@@ -1152,8 +1152,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>